--- a/AugerLogs/DB4/DB4_metadata.xlsx
+++ b/AugerLogs/DB4/DB4_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MarkLundineSurface\CarolinaBaySedimentology\AugerLogs\DB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40637967-AEEF-437A-AEEE-4ED596D78929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2680AB6-9020-4F23-B78D-F65D52F0A9DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13365" yWindow="4538" windowWidth="13838" windowHeight="10522" xr2:uid="{1B15246B-34CB-4F63-A057-3D617BDDF24D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{1B15246B-34CB-4F63-A057-3D617BDDF24D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
     <t>DB4_3</t>
   </si>
   <si>
-    <t>DB4_5</t>
+    <t>DB4_4</t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
